--- a/results/annex_reg.xlsx
+++ b/results/annex_reg.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet 3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet 4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -120,9 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">pctincopp_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lag_annexed</t>
   </si>
 </sst>
 </file>
@@ -503,41 +498,41 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0781756318859365</v>
+        <v>-0.0993056676893267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00338872073981178</v>
+        <v>0.0126510451156922</v>
       </c>
       <c r="D2" t="n">
-        <v>-23.0693638952021</v>
+        <v>-7.84960189306011</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000733322378741668</v>
+        <v>0.000000001504410458197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.668516018598795</v>
+        <v>0.642523623817616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.335345572622909</v>
+        <v>0.284979947407522</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0439150210036708</v>
+        <v>0.0623233262924254</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.275073243814594</v>
+        <v>0.292906685383534</v>
       </c>
       <c r="K2" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L2" t="n">
-        <v>17982.4964590692</v>
+        <v>21958.8743940415</v>
       </c>
       <c r="M2" t="n">
-        <v>151945.423511075</v>
+        <v>155361.06664428</v>
       </c>
       <c r="N2" t="n">
-        <v>7011.75177046541</v>
+        <v>4959.56280297923</v>
       </c>
     </row>
     <row r="3">
@@ -545,41 +540,41 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.020497668279901</v>
+        <v>-0.0302353066840893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00786720482971912</v>
+        <v>0.0204059651243696</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.60545755748841</v>
+        <v>-1.48168961868807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00918367839673997</v>
+        <v>0.146458217039315</v>
       </c>
       <c r="F3" t="n">
-        <v>0.668516018598795</v>
+        <v>0.642523623817616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.335345572622909</v>
+        <v>0.284979947407522</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0439150210036708</v>
+        <v>0.0623233262924254</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.275073243814594</v>
+        <v>0.292906685383534</v>
       </c>
       <c r="K3" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L3" t="n">
-        <v>17982.4964590692</v>
+        <v>21958.8743940415</v>
       </c>
       <c r="M3" t="n">
-        <v>151945.423511075</v>
+        <v>155361.06664428</v>
       </c>
       <c r="N3" t="n">
-        <v>7011.75177046541</v>
+        <v>4959.56280297923</v>
       </c>
     </row>
   </sheetData>
@@ -612,139 +607,74 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0781756318859365</v>
+        <v>-0.0714288761818592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00339079275093067</v>
+        <v>0.0119991430815623</v>
       </c>
       <c r="D2" t="n">
-        <v>-23.0552669031393</v>
+        <v>-5.95283143940634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000100505713392655</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.020497668279901</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00787201518062535</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-2.6038654410055</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0092264293115694</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.0351839410750537</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0036285174848709</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-9.69650586548173</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.000000000000000000000359190075666423</v>
+        <v>0.000000602233994769078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K2" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L2" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M2" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N2" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="3">
@@ -752,41 +682,41 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.210270932233419</v>
+        <v>-0.213171310317291</v>
       </c>
       <c r="C3" t="n">
-        <v>0.057616050785612</v>
+        <v>0.073104157992105</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.64952004461105</v>
+        <v>-2.91599433154422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000263568735675605</v>
+        <v>0.00585083211395725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H3" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K3" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L3" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M3" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N3" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="4">
@@ -794,41 +724,41 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.103250102762718</v>
+        <v>0.0927925636870173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0114658698732533</v>
+        <v>0.0178014765969564</v>
       </c>
       <c r="D4" t="n">
-        <v>9.00499516426325</v>
+        <v>5.21263296230621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000000000000000000239592753783156</v>
+        <v>0.00000638945022864518</v>
       </c>
       <c r="F4" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H4" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K4" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L4" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M4" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N4" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="5">
@@ -836,41 +766,41 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.000104468450271181</v>
+        <v>0.00214979418509637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00470286828082247</v>
+        <v>0.00576668308895803</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0222137733895688</v>
+        <v>0.37279561785054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.982277708406913</v>
+        <v>0.711319038749803</v>
       </c>
       <c r="F5" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G5" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H5" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K5" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L5" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M5" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N5" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="6">
@@ -878,41 +808,41 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.058946595313569</v>
+        <v>-0.0598954007539801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0209234039689857</v>
+        <v>0.0389675162961359</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.81725647513877</v>
+        <v>-1.53705974737526</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00484953253176223</v>
+        <v>0.13235307666965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H6" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K6" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L6" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M6" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N6" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="7">
@@ -920,41 +850,41 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00867290059933873</v>
+        <v>0.00835803257620872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00299192848883976</v>
+        <v>0.00459702876202537</v>
       </c>
       <c r="D7" t="n">
-        <v>2.89876600717218</v>
+        <v>1.81813797756756</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00375144623139385</v>
+        <v>0.0767300047752489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H7" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K7" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L7" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M7" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N7" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="8">
@@ -962,41 +892,41 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0682755793072244</v>
+        <v>-0.088134658047358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0142811778710286</v>
+        <v>0.0202661371749007</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.7808086926591</v>
+        <v>-4.34886319414197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00000176148480786051</v>
+        <v>0.0000951963412020633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G8" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H8" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K8" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L8" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M8" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N8" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="9">
@@ -1004,41 +934,41 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0130300382343803</v>
+        <v>0.0163803517014326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00259551473765082</v>
+        <v>0.00356494757666715</v>
       </c>
       <c r="D9" t="n">
-        <v>5.02021354198655</v>
+        <v>4.59483662779314</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000000521701044143159</v>
+        <v>0.0000445619058899575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H9" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K9" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L9" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M9" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N9" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="10">
@@ -1046,41 +976,41 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0056367722897714</v>
+        <v>-0.00336236553007512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00232087584250214</v>
+        <v>0.00341729713031287</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.42872633966253</v>
+        <v>-0.98392542464321</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0151629323925567</v>
+        <v>0.331217167271794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G10" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H10" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K10" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L10" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M10" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N10" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="11">
@@ -1088,41 +1018,41 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>0.000415385852699157</v>
+        <v>0.000303463241551453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00165375934620146</v>
+        <v>0.00242977395485236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251176722691401</v>
+        <v>0.124893610348166</v>
       </c>
       <c r="E11" t="n">
-        <v>0.801680713837972</v>
+        <v>0.901249337139305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G11" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H11" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K11" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L11" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M11" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N11" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="12">
@@ -1130,41 +1060,41 @@
         <v>25</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00626407640189611</v>
+        <v>0.00238420229845168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00293038818953958</v>
+        <v>0.00447165342668378</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1376268250932</v>
+        <v>0.533181369608026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0325621903949576</v>
+        <v>0.596933587712039</v>
       </c>
       <c r="F12" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H12" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K12" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L12" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M12" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N12" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="13">
@@ -1172,41 +1102,41 @@
         <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00357452802426573</v>
+        <v>0.0348975539826894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00904232486247748</v>
+        <v>0.0136737092913674</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.395310728007438</v>
+        <v>2.55216439366027</v>
       </c>
       <c r="E13" t="n">
-        <v>0.69261886603416</v>
+        <v>0.014736054241854</v>
       </c>
       <c r="F13" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G13" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H13" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K13" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L13" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M13" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N13" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="14">
@@ -1214,41 +1144,41 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00487981669960931</v>
+        <v>0.00174269354309846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00439573936654873</v>
+        <v>0.00528499445828568</v>
       </c>
       <c r="D14" t="n">
-        <v>1.11012421180937</v>
+        <v>0.329743684095318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.266962229451996</v>
+        <v>0.743358250561533</v>
       </c>
       <c r="F14" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H14" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K14" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L14" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M14" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N14" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="15">
@@ -1256,41 +1186,41 @@
         <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>0.000732473664422556</v>
+        <v>-0.00132353080595137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00229243490440346</v>
+        <v>0.00346002521872055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.319517759486027</v>
+        <v>-0.382520566263616</v>
       </c>
       <c r="E15" t="n">
-        <v>0.749338108268121</v>
+        <v>0.70415207332834</v>
       </c>
       <c r="F15" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G15" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H15" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K15" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L15" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M15" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N15" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="16">
@@ -1298,41 +1228,41 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00106725791717682</v>
+        <v>0.0127139644867955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0051590856991435</v>
+        <v>0.00542848594885366</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206869584925485</v>
+        <v>2.34208296872913</v>
       </c>
       <c r="E16" t="n">
-        <v>0.836114349285473</v>
+        <v>0.0243759289322958</v>
       </c>
       <c r="F16" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G16" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H16" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K16" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L16" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M16" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N16" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="17">
@@ -1340,41 +1270,41 @@
         <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00422160873915719</v>
+        <v>0.0077532377537602</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00741014230144084</v>
+        <v>0.0119679271449614</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.56970683792892</v>
+        <v>0.647834638350419</v>
       </c>
       <c r="E17" t="n">
-        <v>0.568884569398828</v>
+        <v>0.520887741340464</v>
       </c>
       <c r="F17" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H17" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K17" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L17" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M17" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N17" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="18">
@@ -1382,41 +1312,41 @@
         <v>31</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0148560930723908</v>
+        <v>0.0205942248068941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00781452739403865</v>
+        <v>0.00737314208591352</v>
       </c>
       <c r="D18" t="n">
-        <v>1.90108656906416</v>
+        <v>2.79314091155786</v>
       </c>
       <c r="E18" t="n">
-        <v>0.057308668219116</v>
+        <v>0.00804826847763683</v>
       </c>
       <c r="F18" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H18" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K18" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L18" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M18" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N18" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="19">
@@ -1424,41 +1354,41 @@
         <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.000267807613946791</v>
+        <v>-0.0259543178686204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00352134067340161</v>
+        <v>0.00509602274720294</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0760527420620423</v>
+        <v>-5.09305377077956</v>
       </c>
       <c r="E19" t="n">
-        <v>0.939378090755855</v>
+        <v>0.0000093334474885591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H19" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K19" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L19" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M19" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N19" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="20">
@@ -1466,41 +1396,41 @@
         <v>33</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0117009192921623</v>
+        <v>0.0104815324438013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00180245428040752</v>
+        <v>0.00436604781240187</v>
       </c>
       <c r="D20" t="n">
-        <v>6.49165941092096</v>
+        <v>2.40069117292492</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0000000000874004177991185</v>
+        <v>0.0212326853483249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G20" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H20" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K20" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L20" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M20" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N20" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="21">
@@ -1508,530 +1438,83 @@
         <v>34</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00143803138798588</v>
+        <v>0.0068598838907618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00195314359820276</v>
+        <v>0.00236721201132644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.736265059726856</v>
+        <v>2.89787473954137</v>
       </c>
       <c r="E21" t="n">
-        <v>0.461580225923892</v>
+        <v>0.00613518390493548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G21" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H21" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K21" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L21" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M21" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N21" t="n">
-        <v>13929.9378047052</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.540166411906756</v>
+        <v>-0.0252697997641362</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00875177748203578</v>
+        <v>0.0193611978486518</v>
       </c>
       <c r="D22" t="n">
-        <v>-61.7207662118376</v>
+        <v>-1.30517749788378</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.199480653139349</v>
       </c>
       <c r="F22" t="n">
-        <v>0.785102000037387</v>
+        <v>0.648648396487549</v>
       </c>
       <c r="G22" t="n">
-        <v>0.568568715627539</v>
+        <v>0.296391702767507</v>
       </c>
       <c r="H22" t="n">
-        <v>0.380178948882803</v>
+        <v>0.0783888815206902</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="n">
-        <v>0.221618603991966</v>
+        <v>0.290559881359885</v>
       </c>
       <c r="K22" t="n">
-        <v>31924</v>
+        <v>31874</v>
       </c>
       <c r="L22" t="n">
-        <v>4186.12439058953</v>
+        <v>21446.0330943114</v>
       </c>
       <c r="M22" t="n">
-        <v>138316.473709735</v>
+        <v>155007.246716829</v>
       </c>
       <c r="N22" t="n">
-        <v>13929.9378047052</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.00301637618000669</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.00655214790540846</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.460364482541187</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.645260895512605</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.785102000037387</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.568568715627539</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.380178948882803</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>0.221618603991966</v>
-      </c>
-      <c r="K23" t="n">
-        <v>31924</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4186.12439058953</v>
-      </c>
-      <c r="M23" t="n">
-        <v>138316.473709735</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13929.9378047052</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.0351839410750536</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.00363073751036603</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-9.69057690747425</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00000000000000000000038053708020535</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.210270932233419</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0576513018494986</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3.64728853447822</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.000265865633095941</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.103250102762718</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0114728850036884</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.99948903257757</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000000000000000000251854631678409</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.000104468450271202</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.00470574562329835</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.0222001907102616</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.982288542975249</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.0589465953135689</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0209362054755099</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-2.81553385509717</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0048755948731866</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0086729005993387</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.00299375903190659</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.89699354787927</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00377269512533985</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.0682755793072245</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0142899154833197</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4.77788545264113</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00000178724355647639</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0130300382343804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00259710274402384</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.01714391714521</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.000000530089345333177</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.0056367722897714</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00232229581734389</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-2.42724128755414</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0152251230902341</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.000415385852699174</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00165477116106158</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.251023139920262</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.801799450145349</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00626407640189613</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00293218108058077</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.13631976666851</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0326685242547392</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.00357452802426574</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00904785720228669</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.395069014060295</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.69279723530294</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.00487981669960932</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.00439842879921768</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.10944542298315</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.267254791585899</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.000732473664422552</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.00229383747830724</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.319322389380039</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.749486235428517</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.00106725791717681</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.00516224216782015</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.2067430938885</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.836213137537707</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.00422160873915722</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.00741467602765282</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.569358488949869</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.569120893820912</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0148560930723908</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.00781930853402751</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.89992414389855</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0574610802774344</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.000267807613946795</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.00352349512521412</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.0760062393815632</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.939415086856438</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0117009192921622</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.00180355707086478</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.48769006602702</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0000000000897273803289344</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.00143803138798588</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.00195433858447518</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.735814868216425</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.461854184321985</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.540166411906755</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.00875713205707059</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-61.6830268615876</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.00301637618000666</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.00655615668735827</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.46008299127794</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.645462919313334</v>
+        <v>5234.98345284431</v>
       </c>
     </row>
   </sheetData>
